--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
     <sheet name="Select Order" sheetId="13" r:id="rId13"/>
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
-    <sheet name="Close App" sheetId="15" r:id="rId15"/>
+    <sheet name="Close App- New" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -223,10 +223,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="283845"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -519,13 +519,13 @@
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1">
-      <c t="s">
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -547,7 +547,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -566,7 +566,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -585,7 +585,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -604,7 +604,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -623,7 +623,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -642,7 +642,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -661,7 +661,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -680,7 +680,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,7 +699,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -718,7 +718,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -737,7 +737,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -756,7 +756,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -775,7 +775,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -794,7 +794,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="Order By Ad" sheetId="9" r:id="rId9"/>
     <sheet name="New Search" sheetId="10" r:id="rId10"/>
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
-    <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
-    <sheet name="Select Order" sheetId="13" r:id="rId13"/>
-    <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
-    <sheet name="Close App- New" sheetId="15" r:id="rId15"/>
+    <sheet name="Select Order" sheetId="12" r:id="rId12"/>
+    <sheet name="Search Order Tab" sheetId="13" r:id="rId13"/>
+    <sheet name="Close App- New" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -178,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,11 +198,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -211,6 +221,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,8 +531,8 @@
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1">
-      <c r="A1" t="s">
+    <row r="1" ht="14.95" s="4" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -614,25 +626,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -642,7 +635,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="New Search" sheetId="10" r:id="rId10"/>
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
     <sheet name="Select Order" sheetId="12" r:id="rId12"/>
-    <sheet name="Search Order Tab" sheetId="13" r:id="rId13"/>
-    <sheet name="Close App- New" sheetId="14" r:id="rId14"/>
+    <sheet name="Close App- New" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -190,9 +189,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -203,7 +200,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -218,10 +217,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -532,12 +531,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.95" s="4" customFormat="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -607,25 +606,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="12"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="Order By Ad" sheetId="9" r:id="rId9"/>
     <sheet name="New Search" sheetId="10" r:id="rId10"/>
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
-    <sheet name="Select Order" sheetId="12" r:id="rId12"/>
-    <sheet name="Close App- New" sheetId="13" r:id="rId13"/>
+    <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
+    <sheet name="Select Order" sheetId="13" r:id="rId13"/>
+    <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
+    <sheet name="Close App- New" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -176,23 +178,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -212,16 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,13 +519,13 @@
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="4" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -606,6 +595,44 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -615,7 +642,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
